--- a/Aufgabe2/doc/simulation.xlsx
+++ b/Aufgabe2/doc/simulation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="14370"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Knoten</t>
   </si>
@@ -120,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -241,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -452,22 +450,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="8" width="31.42578125" customWidth="1"/>
+    <col min="2" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -519,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,7 +541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -571,7 +567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -597,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -614,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -640,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -666,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -674,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -700,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -723,20 +719,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -788,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -814,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -840,32 +836,74 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -876,12 +914,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aufgabe2/doc/simulation.xlsx
+++ b/Aufgabe2/doc/simulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="14370"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="14370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Knoten</t>
   </si>
@@ -108,13 +108,31 @@
     <t>1:branch, 3:branch</t>
   </si>
   <si>
-    <t>report(3,2);initiate(2,3,find,2)</t>
-  </si>
-  <si>
-    <t>report(3,1);initiate(2,3,find)</t>
-  </si>
-  <si>
     <t>report(4,1)</t>
+  </si>
+  <si>
+    <t>2:branch, 4:rejected, 9:basic</t>
+  </si>
+  <si>
+    <t>report(3,2);initiate(2,3,find,2);test(2,3,4)</t>
+  </si>
+  <si>
+    <t>report(3,1);</t>
+  </si>
+  <si>
+    <t>5:branch, 7:rejected, 8:branch</t>
+  </si>
+  <si>
+    <t>report(3,2);</t>
+  </si>
+  <si>
+    <t>test(2,3,9)</t>
+  </si>
+  <si>
+    <t>1:branch, 4:rejected, 8:branch</t>
+  </si>
+  <si>
+    <t>initiate(2,3,find,5);report(8,5);</t>
   </si>
 </sst>
 </file>
@@ -453,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -494,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -520,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -572,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -597,9 +615,6 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
       <c r="E6">
         <v>9</v>
       </c>
@@ -614,8 +629,8 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>4</v>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -666,6 +681,9 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
       <c r="D9">
         <v>7</v>
       </c>
@@ -701,16 +719,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -720,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -908,6 +926,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -915,12 +938,265 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="8" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>